--- a/APublish/Config/Excel/Q_全局常数.xlsx
+++ b/APublish/Config/Excel/Q_全局常数.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\AmilyServerBase\APublish\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\AmilyServerBase\APublish\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E32B2A7-3901-422E-87CB-F8C8423EB63B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21930" windowHeight="10275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21930" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GlobalConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="E全局常数|GlobalConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -294,22 +295,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全局名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,13 +437,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -851,14 +852,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -872,16 +873,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -892,10 +893,10 @@
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
